--- a/blogposts/stocks/material/stock-symbols.xlsx
+++ b/blogposts/stocks/material/stock-symbols.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Projects\Stocks Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4700D1B1-FDA0-4703-9FB8-AF3120C72770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AE53C3-8882-4888-9DF3-2825334AE6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2805" windowWidth="21600" windowHeight="11385" xr2:uid="{07D72CAA-1A14-4CC8-A404-429C0002DDDA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{07D72CAA-1A14-4CC8-A404-429C0002DDDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="1912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="1909">
   <si>
     <t>MSFT</t>
   </si>
@@ -3684,15 +3684,6 @@
   </si>
   <si>
     <t>24.25B</t>
-  </si>
-  <si>
-    <t>VLTO</t>
-  </si>
-  <si>
-    <t>Veralto Corporation</t>
-  </si>
-  <si>
-    <t>24.01B</t>
   </si>
   <si>
     <t>CAH</t>
@@ -5813,7 +5804,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5829,7 +5820,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6145,23 +6136,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF467B4-06AE-48C1-B086-68442E41D053}">
-  <dimension ref="A1:F496"/>
+  <dimension ref="A1:F495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="I228" sqref="I228"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="A309" sqref="A309:XFD309"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6181,7 +6172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -6201,7 +6192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -6221,7 +6212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -6241,7 +6232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -6261,7 +6252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -6281,7 +6272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -6301,7 +6292,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -6321,7 +6312,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -6341,7 +6332,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -6361,7 +6352,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -6381,7 +6372,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -6401,7 +6392,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -6421,7 +6412,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -6441,7 +6432,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -6461,7 +6452,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -6481,7 +6472,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -6501,7 +6492,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -6521,7 +6512,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -6541,7 +6532,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -6561,7 +6552,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -6581,7 +6572,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -6601,7 +6592,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -6621,7 +6612,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -6641,7 +6632,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -6661,7 +6652,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -6681,7 +6672,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -6701,7 +6692,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -6721,7 +6712,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -6741,7 +6732,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>116</v>
       </c>
@@ -6761,7 +6752,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>120</v>
       </c>
@@ -6781,7 +6772,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>124</v>
       </c>
@@ -6801,7 +6792,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>128</v>
       </c>
@@ -6821,7 +6812,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>132</v>
       </c>
@@ -6841,7 +6832,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>136</v>
       </c>
@@ -6861,7 +6852,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>140</v>
       </c>
@@ -6881,7 +6872,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -6901,7 +6892,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -6921,7 +6912,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -6941,7 +6932,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>156</v>
       </c>
@@ -6961,7 +6952,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>160</v>
       </c>
@@ -6981,7 +6972,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>164</v>
       </c>
@@ -7001,7 +6992,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>168</v>
       </c>
@@ -7021,7 +7012,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>172</v>
       </c>
@@ -7041,7 +7032,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>176</v>
       </c>
@@ -7061,7 +7052,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>180</v>
       </c>
@@ -7081,7 +7072,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>184</v>
       </c>
@@ -7101,7 +7092,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>188</v>
       </c>
@@ -7121,7 +7112,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>192</v>
       </c>
@@ -7141,7 +7132,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>196</v>
       </c>
@@ -7161,7 +7152,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>200</v>
       </c>
@@ -7181,7 +7172,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>204</v>
       </c>
@@ -7201,7 +7192,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>208</v>
       </c>
@@ -7221,7 +7212,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>212</v>
       </c>
@@ -7241,7 +7232,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>216</v>
       </c>
@@ -7261,7 +7252,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>220</v>
       </c>
@@ -7281,7 +7272,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>224</v>
       </c>
@@ -7301,7 +7292,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>228</v>
       </c>
@@ -7321,7 +7312,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>232</v>
       </c>
@@ -7341,7 +7332,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>236</v>
       </c>
@@ -7361,7 +7352,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>240</v>
       </c>
@@ -7381,7 +7372,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>244</v>
       </c>
@@ -7401,7 +7392,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>248</v>
       </c>
@@ -7421,7 +7412,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>252</v>
       </c>
@@ -7441,7 +7432,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>256</v>
       </c>
@@ -7461,7 +7452,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>260</v>
       </c>
@@ -7481,7 +7472,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>264</v>
       </c>
@@ -7501,7 +7492,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>268</v>
       </c>
@@ -7521,7 +7512,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>272</v>
       </c>
@@ -7541,7 +7532,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>276</v>
       </c>
@@ -7561,7 +7552,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>280</v>
       </c>
@@ -7581,7 +7572,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>284</v>
       </c>
@@ -7601,7 +7592,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>289</v>
       </c>
@@ -7621,7 +7612,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>293</v>
       </c>
@@ -7641,7 +7632,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>297</v>
       </c>
@@ -7661,7 +7652,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>301</v>
       </c>
@@ -7681,7 +7672,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>305</v>
       </c>
@@ -7701,7 +7692,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>309</v>
       </c>
@@ -7721,7 +7712,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>313</v>
       </c>
@@ -7741,7 +7732,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>317</v>
       </c>
@@ -7761,7 +7752,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>321</v>
       </c>
@@ -7781,7 +7772,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>325</v>
       </c>
@@ -7801,7 +7792,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>329</v>
       </c>
@@ -7821,7 +7812,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>333</v>
       </c>
@@ -7841,7 +7832,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>337</v>
       </c>
@@ -7861,7 +7852,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>341</v>
       </c>
@@ -7881,7 +7872,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>345</v>
       </c>
@@ -7901,7 +7892,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>349</v>
       </c>
@@ -7921,7 +7912,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>353</v>
       </c>
@@ -7941,7 +7932,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>357</v>
       </c>
@@ -7961,7 +7952,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>361</v>
       </c>
@@ -7981,7 +7972,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>365</v>
       </c>
@@ -8001,7 +7992,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>369</v>
       </c>
@@ -8021,7 +8012,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>373</v>
       </c>
@@ -8041,7 +8032,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>377</v>
       </c>
@@ -8061,7 +8052,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>381</v>
       </c>
@@ -8081,7 +8072,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>385</v>
       </c>
@@ -8101,7 +8092,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>389</v>
       </c>
@@ -8121,7 +8112,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>393</v>
       </c>
@@ -8141,7 +8132,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>397</v>
       </c>
@@ -8161,7 +8152,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>401</v>
       </c>
@@ -8181,7 +8172,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>405</v>
       </c>
@@ -8201,7 +8192,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>409</v>
       </c>
@@ -8221,7 +8212,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>413</v>
       </c>
@@ -8241,7 +8232,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>417</v>
       </c>
@@ -8261,7 +8252,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>421</v>
       </c>
@@ -8281,7 +8272,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>425</v>
       </c>
@@ -8301,7 +8292,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>429</v>
       </c>
@@ -8321,7 +8312,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>433</v>
       </c>
@@ -8341,7 +8332,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>437</v>
       </c>
@@ -8361,7 +8352,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>441</v>
       </c>
@@ -8381,7 +8372,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>445</v>
       </c>
@@ -8401,7 +8392,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>449</v>
       </c>
@@ -8421,7 +8412,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>453</v>
       </c>
@@ -8441,7 +8432,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>457</v>
       </c>
@@ -8461,7 +8452,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>461</v>
       </c>
@@ -8481,7 +8472,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>465</v>
       </c>
@@ -8501,7 +8492,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>469</v>
       </c>
@@ -8521,7 +8512,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>473</v>
       </c>
@@ -8541,7 +8532,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>477</v>
       </c>
@@ -8561,7 +8552,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>481</v>
       </c>
@@ -8581,7 +8572,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>485</v>
       </c>
@@ -8601,7 +8592,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>489</v>
       </c>
@@ -8621,7 +8612,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>493</v>
       </c>
@@ -8641,7 +8632,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>497</v>
       </c>
@@ -8661,7 +8652,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>501</v>
       </c>
@@ -8681,7 +8672,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>505</v>
       </c>
@@ -8701,7 +8692,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>509</v>
       </c>
@@ -8721,7 +8712,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>513</v>
       </c>
@@ -8741,7 +8732,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>517</v>
       </c>
@@ -8761,7 +8752,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>521</v>
       </c>
@@ -8781,7 +8772,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>525</v>
       </c>
@@ -8801,7 +8792,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>529</v>
       </c>
@@ -8821,7 +8812,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>533</v>
       </c>
@@ -8841,7 +8832,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>537</v>
       </c>
@@ -8861,7 +8852,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>541</v>
       </c>
@@ -8881,7 +8872,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>545</v>
       </c>
@@ -8901,7 +8892,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>549</v>
       </c>
@@ -8921,7 +8912,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>553</v>
       </c>
@@ -8941,7 +8932,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>557</v>
       </c>
@@ -8961,7 +8952,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>561</v>
       </c>
@@ -8981,7 +8972,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>565</v>
       </c>
@@ -9001,7 +8992,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>568</v>
       </c>
@@ -9021,7 +9012,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>572</v>
       </c>
@@ -9041,7 +9032,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>576</v>
       </c>
@@ -9061,7 +9052,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>580</v>
       </c>
@@ -9081,7 +9072,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>584</v>
       </c>
@@ -9101,7 +9092,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>588</v>
       </c>
@@ -9121,7 +9112,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>592</v>
       </c>
@@ -9141,7 +9132,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>595</v>
       </c>
@@ -9161,7 +9152,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>599</v>
       </c>
@@ -9181,7 +9172,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>603</v>
       </c>
@@ -9201,7 +9192,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>607</v>
       </c>
@@ -9221,7 +9212,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>611</v>
       </c>
@@ -9241,7 +9232,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>615</v>
       </c>
@@ -9261,7 +9252,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>619</v>
       </c>
@@ -9281,7 +9272,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>623</v>
       </c>
@@ -9301,7 +9292,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>627</v>
       </c>
@@ -9321,7 +9312,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>631</v>
       </c>
@@ -9341,7 +9332,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>635</v>
       </c>
@@ -9361,7 +9352,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>639</v>
       </c>
@@ -9381,7 +9372,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>643</v>
       </c>
@@ -9401,7 +9392,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>647</v>
       </c>
@@ -9421,7 +9412,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>651</v>
       </c>
@@ -9441,7 +9432,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>655</v>
       </c>
@@ -9461,7 +9452,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>659</v>
       </c>
@@ -9481,7 +9472,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>663</v>
       </c>
@@ -9501,7 +9492,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>667</v>
       </c>
@@ -9521,7 +9512,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>671</v>
       </c>
@@ -9541,7 +9532,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>675</v>
       </c>
@@ -9561,7 +9552,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>679</v>
       </c>
@@ -9581,7 +9572,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>683</v>
       </c>
@@ -9601,7 +9592,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>687</v>
       </c>
@@ -9621,7 +9612,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>691</v>
       </c>
@@ -9641,7 +9632,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>695</v>
       </c>
@@ -9661,7 +9652,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>699</v>
       </c>
@@ -9681,7 +9672,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>703</v>
       </c>
@@ -9701,7 +9692,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>707</v>
       </c>
@@ -9721,7 +9712,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>711</v>
       </c>
@@ -9741,7 +9732,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>715</v>
       </c>
@@ -9761,7 +9752,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>719</v>
       </c>
@@ -9781,7 +9772,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>723</v>
       </c>
@@ -9801,7 +9792,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>727</v>
       </c>
@@ -9821,7 +9812,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>731</v>
       </c>
@@ -9841,7 +9832,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>735</v>
       </c>
@@ -9861,7 +9852,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>739</v>
       </c>
@@ -9881,7 +9872,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>743</v>
       </c>
@@ -9901,7 +9892,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>747</v>
       </c>
@@ -9921,7 +9912,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>751</v>
       </c>
@@ -9941,7 +9932,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>755</v>
       </c>
@@ -9961,7 +9952,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>759</v>
       </c>
@@ -9981,7 +9972,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>763</v>
       </c>
@@ -10001,7 +9992,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>767</v>
       </c>
@@ -10021,7 +10012,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>771</v>
       </c>
@@ -10041,7 +10032,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>775</v>
       </c>
@@ -10061,7 +10052,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>779</v>
       </c>
@@ -10081,7 +10072,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>783</v>
       </c>
@@ -10101,7 +10092,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>787</v>
       </c>
@@ -10121,7 +10112,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>791</v>
       </c>
@@ -10141,7 +10132,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>795</v>
       </c>
@@ -10161,7 +10152,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>799</v>
       </c>
@@ -10181,7 +10172,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>803</v>
       </c>
@@ -10201,7 +10192,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>807</v>
       </c>
@@ -10221,7 +10212,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>811</v>
       </c>
@@ -10241,7 +10232,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>815</v>
       </c>
@@ -10261,7 +10252,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>819</v>
       </c>
@@ -10281,7 +10272,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>823</v>
       </c>
@@ -10301,7 +10292,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>827</v>
       </c>
@@ -10321,7 +10312,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>831</v>
       </c>
@@ -10341,7 +10332,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>835</v>
       </c>
@@ -10361,7 +10352,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>839</v>
       </c>
@@ -10381,7 +10372,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>843</v>
       </c>
@@ -10401,7 +10392,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>847</v>
       </c>
@@ -10421,7 +10412,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>851</v>
       </c>
@@ -10441,7 +10432,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>855</v>
       </c>
@@ -10461,7 +10452,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>858</v>
       </c>
@@ -10481,7 +10472,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>862</v>
       </c>
@@ -10501,7 +10492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>865</v>
       </c>
@@ -10521,7 +10512,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>869</v>
       </c>
@@ -10541,7 +10532,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>873</v>
       </c>
@@ -10561,7 +10552,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>877</v>
       </c>
@@ -10581,7 +10572,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>880</v>
       </c>
@@ -10601,7 +10592,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>884</v>
       </c>
@@ -10621,7 +10612,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>888</v>
       </c>
@@ -10641,7 +10632,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>892</v>
       </c>
@@ -10661,7 +10652,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>896</v>
       </c>
@@ -10681,7 +10672,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>900</v>
       </c>
@@ -10701,7 +10692,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>903</v>
       </c>
@@ -10721,7 +10712,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>907</v>
       </c>
@@ -10741,7 +10732,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>911</v>
       </c>
@@ -10761,7 +10752,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>915</v>
       </c>
@@ -10781,7 +10772,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>919</v>
       </c>
@@ -10801,7 +10792,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>923</v>
       </c>
@@ -10821,7 +10812,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>926</v>
       </c>
@@ -10841,7 +10832,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>930</v>
       </c>
@@ -10861,7 +10852,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>934</v>
       </c>
@@ -10881,7 +10872,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>938</v>
       </c>
@@ -10901,7 +10892,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>942</v>
       </c>
@@ -10921,7 +10912,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>946</v>
       </c>
@@ -10941,7 +10932,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>950</v>
       </c>
@@ -10961,7 +10952,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>954</v>
       </c>
@@ -10981,7 +10972,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>958</v>
       </c>
@@ -11001,7 +10992,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>962</v>
       </c>
@@ -11021,7 +11012,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>966</v>
       </c>
@@ -11041,7 +11032,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>968</v>
       </c>
@@ -11061,7 +11052,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>972</v>
       </c>
@@ -11081,7 +11072,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>976</v>
       </c>
@@ -11101,7 +11092,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>979</v>
       </c>
@@ -11121,7 +11112,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>983</v>
       </c>
@@ -11141,7 +11132,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>987</v>
       </c>
@@ -11161,7 +11152,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>991</v>
       </c>
@@ -11181,7 +11172,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>995</v>
       </c>
@@ -11201,7 +11192,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>999</v>
       </c>
@@ -11221,7 +11212,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1003</v>
       </c>
@@ -11241,7 +11232,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>1007</v>
       </c>
@@ -11261,7 +11252,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>1011</v>
       </c>
@@ -11281,7 +11272,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>1015</v>
       </c>
@@ -11301,7 +11292,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>1019</v>
       </c>
@@ -11321,7 +11312,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>1023</v>
       </c>
@@ -11341,7 +11332,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>1027</v>
       </c>
@@ -11361,7 +11352,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1031</v>
       </c>
@@ -11381,7 +11372,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1035</v>
       </c>
@@ -11401,7 +11392,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1039</v>
       </c>
@@ -11421,7 +11412,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1043</v>
       </c>
@@ -11441,7 +11432,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1046</v>
       </c>
@@ -11461,7 +11452,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1050</v>
       </c>
@@ -11481,7 +11472,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1054</v>
       </c>
@@ -11501,7 +11492,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>1058</v>
       </c>
@@ -11521,7 +11512,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1062</v>
       </c>
@@ -11541,7 +11532,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1066</v>
       </c>
@@ -11561,7 +11552,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>1070</v>
       </c>
@@ -11581,7 +11572,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1074</v>
       </c>
@@ -11601,7 +11592,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1078</v>
       </c>
@@ -11621,7 +11612,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1082</v>
       </c>
@@ -11641,7 +11632,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1086</v>
       </c>
@@ -11661,7 +11652,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1090</v>
       </c>
@@ -11681,7 +11672,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1094</v>
       </c>
@@ -11701,7 +11692,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1098</v>
       </c>
@@ -11721,7 +11712,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1102</v>
       </c>
@@ -11741,7 +11732,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1105</v>
       </c>
@@ -11761,7 +11752,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1109</v>
       </c>
@@ -11781,7 +11772,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1113</v>
       </c>
@@ -11801,7 +11792,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1117</v>
       </c>
@@ -11821,7 +11812,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>1121</v>
       </c>
@@ -11841,7 +11832,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>1125</v>
       </c>
@@ -11861,7 +11852,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>1129</v>
       </c>
@@ -11881,7 +11872,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1132</v>
       </c>
@@ -11901,7 +11892,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1136</v>
       </c>
@@ -11921,7 +11912,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>1140</v>
       </c>
@@ -11941,7 +11932,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>1144</v>
       </c>
@@ -11961,7 +11952,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>1148</v>
       </c>
@@ -11981,7 +11972,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1152</v>
       </c>
@@ -12001,7 +11992,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1156</v>
       </c>
@@ -12021,7 +12012,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>1159</v>
       </c>
@@ -12041,7 +12032,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>1163</v>
       </c>
@@ -12061,7 +12052,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1167</v>
       </c>
@@ -12081,7 +12072,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>1171</v>
       </c>
@@ -12101,7 +12092,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1175</v>
       </c>
@@ -12121,7 +12112,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1179</v>
       </c>
@@ -12141,7 +12132,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>1183</v>
       </c>
@@ -12161,7 +12152,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>1187</v>
       </c>
@@ -12181,7 +12172,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>1191</v>
       </c>
@@ -12201,7 +12192,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>1195</v>
       </c>
@@ -12221,7 +12212,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>1199</v>
       </c>
@@ -12241,7 +12232,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>1202</v>
       </c>
@@ -12261,7 +12252,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>1205</v>
       </c>
@@ -12281,7 +12272,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>1209</v>
       </c>
@@ -12301,7 +12292,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>1213</v>
       </c>
@@ -12321,7 +12312,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>1216</v>
       </c>
@@ -12332,176 +12323,176 @@
         <v>1218</v>
       </c>
       <c r="D309">
-        <v>97.27</v>
+        <v>97.87</v>
       </c>
       <c r="E309" s="1">
-        <v>5.4999999999999997E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="F309" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B310" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="C310" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D310">
-        <v>97.87</v>
+        <v>1222</v>
+      </c>
+      <c r="D310" s="2">
+        <v>7580.52</v>
       </c>
       <c r="E310" s="1">
-        <v>4.4000000000000003E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="F310" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B311" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="C311" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D311" s="2">
-        <v>7580.52</v>
+        <v>1226</v>
+      </c>
+      <c r="D311">
+        <v>110.96</v>
       </c>
       <c r="E311" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="F311" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B312" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C312" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D312">
-        <v>110.96</v>
+        <v>114.59</v>
       </c>
       <c r="E312" s="1">
-        <v>1.1999999999999999E-3</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="F312" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B313" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="C313" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D313">
-        <v>114.59</v>
+        <v>310.68</v>
       </c>
       <c r="E313" s="1">
-        <v>-1.1999999999999999E-3</v>
+        <v>-3.8E-3</v>
       </c>
       <c r="F313" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B314" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C314" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D314">
-        <v>310.68</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="E314" s="1">
-        <v>-3.8E-3</v>
+        <v>-8.5000000000000006E-3</v>
       </c>
       <c r="F314" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B315" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C315" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D315">
-        <v>71.430000000000007</v>
+        <v>78.010000000000005</v>
       </c>
       <c r="E315" s="1">
-        <v>-8.5000000000000006E-3</v>
+        <v>-4.0000000000000002E-4</v>
       </c>
       <c r="F315" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B316" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C316" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D316">
-        <v>78.010000000000005</v>
+        <v>83.67</v>
       </c>
       <c r="E316" s="1">
-        <v>-4.0000000000000002E-4</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="F316" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B317" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="C317" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="D317">
-        <v>83.67</v>
+        <v>75.58</v>
       </c>
       <c r="E317" s="1">
-        <v>5.5999999999999999E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="F317" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>1251</v>
       </c>
@@ -12512,316 +12503,316 @@
         <v>1253</v>
       </c>
       <c r="D318">
-        <v>75.58</v>
+        <v>39.479999999999997</v>
       </c>
       <c r="E318" s="1">
-        <v>3.5000000000000001E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="F318" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B319" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C319" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D319">
-        <v>39.479999999999997</v>
+        <v>191.98</v>
       </c>
       <c r="E319" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F319" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B320" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="C320" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D320">
-        <v>191.98</v>
+        <v>109.45</v>
       </c>
       <c r="E320" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>-2.9999999999999997E-4</v>
       </c>
       <c r="F320" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B321" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="C321" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D321">
-        <v>109.45</v>
+        <v>46.55</v>
       </c>
       <c r="E321" s="1">
-        <v>-2.9999999999999997E-4</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F321" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B322" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="C322" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D322">
-        <v>46.55</v>
+        <v>30.9</v>
       </c>
       <c r="E322" s="1">
-        <v>1.2999999999999999E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="F322" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B323" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="C323" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D323">
-        <v>30.9</v>
+        <v>17.05</v>
       </c>
       <c r="E323" s="1">
-        <v>5.4999999999999997E-3</v>
+        <v>-7.9000000000000008E-3</v>
       </c>
       <c r="F323" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B324" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C324" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="D324">
-        <v>17.05</v>
+        <v>70.17</v>
       </c>
       <c r="E324" s="1">
-        <v>-7.9000000000000008E-3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="F324" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B325" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C325" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D325">
-        <v>70.17</v>
+        <v>859.11</v>
       </c>
       <c r="E325" s="1">
-        <v>3.8999999999999998E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="F325" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B326" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C326" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D326">
-        <v>859.11</v>
+        <v>95</v>
       </c>
       <c r="E326" s="1">
-        <v>6.6E-3</v>
+        <v>-8.2000000000000007E-3</v>
       </c>
       <c r="F326" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B327" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="C327" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D327">
-        <v>95</v>
+        <v>221.39</v>
       </c>
       <c r="E327" s="1">
-        <v>-8.2000000000000007E-3</v>
+        <v>5.3800000000000001E-2</v>
       </c>
       <c r="F327" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B328" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="C328" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D328">
-        <v>221.39</v>
+        <v>61.27</v>
       </c>
       <c r="E328" s="1">
-        <v>5.3800000000000001E-2</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="F328" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B329" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C329" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D329">
-        <v>61.27</v>
+        <v>154.86000000000001</v>
       </c>
       <c r="E329" s="1">
-        <v>3.7000000000000002E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="F329" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="B330" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="C330" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D330">
-        <v>154.86000000000001</v>
+        <v>178.6</v>
       </c>
       <c r="E330" s="1">
-        <v>3.3E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F330" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B331" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="C331" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D331">
-        <v>178.6</v>
+        <v>199.31</v>
       </c>
       <c r="E331" s="1">
-        <v>1.5E-3</v>
+        <v>1.06E-2</v>
       </c>
       <c r="F331" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B332" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C332" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D332">
-        <v>199.31</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="E332" s="1">
-        <v>1.06E-2</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="F332" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B333" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="C333" t="s">
-        <v>1312</v>
+        <v>658</v>
       </c>
       <c r="D333">
-        <v>34.799999999999997</v>
+        <v>397.86</v>
       </c>
       <c r="E333" s="1">
-        <v>2.8999999999999998E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="F333" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>1314</v>
       </c>
@@ -12829,59 +12820,59 @@
         <v>1315</v>
       </c>
       <c r="C334" t="s">
-        <v>658</v>
+        <v>1316</v>
       </c>
       <c r="D334">
-        <v>397.86</v>
+        <v>62.01</v>
       </c>
       <c r="E334" s="1">
-        <v>3.8E-3</v>
+        <v>-5.1000000000000004E-3</v>
       </c>
       <c r="F334" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B335" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="C335" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D335">
-        <v>62.01</v>
+        <v>28.63</v>
       </c>
       <c r="E335" s="1">
-        <v>-5.1000000000000004E-3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="F335" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B336" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="C336" t="s">
-        <v>1323</v>
+        <v>292</v>
       </c>
       <c r="D336">
-        <v>28.63</v>
+        <v>28.16</v>
       </c>
       <c r="E336" s="1">
-        <v>3.8999999999999998E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="F336" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>1325</v>
       </c>
@@ -12889,159 +12880,159 @@
         <v>1326</v>
       </c>
       <c r="C337" t="s">
-        <v>292</v>
+        <v>1327</v>
       </c>
       <c r="D337">
-        <v>28.16</v>
+        <v>131.99</v>
       </c>
       <c r="E337" s="1">
-        <v>3.2000000000000002E-3</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="F337" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B338" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="C338" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D338">
-        <v>131.99</v>
+        <v>289.49</v>
       </c>
       <c r="E338" s="1">
-        <v>8.8999999999999999E-3</v>
+        <v>-4.9299999999999997E-2</v>
       </c>
       <c r="F338" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B339" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="C339" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D339">
-        <v>289.49</v>
+        <v>118.45</v>
       </c>
       <c r="E339" s="1">
-        <v>-4.9299999999999997E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F339" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B340" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="C340" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D340">
-        <v>118.45</v>
+        <v>59.01</v>
       </c>
       <c r="E340" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>-2E-3</v>
       </c>
       <c r="F340" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B341" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C341" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D341">
-        <v>59.01</v>
+        <v>274.02</v>
       </c>
       <c r="E341" s="1">
-        <v>-2E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F341" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B342" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="C342" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D342">
-        <v>274.02</v>
+        <v>190.38</v>
       </c>
       <c r="E342" s="1">
-        <v>1.4E-3</v>
+        <v>-1.8E-3</v>
       </c>
       <c r="F342" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B343" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="C343" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D343">
-        <v>190.38</v>
+        <v>167.73</v>
       </c>
       <c r="E343" s="1">
-        <v>-1.8E-3</v>
+        <v>2.6100000000000002E-2</v>
       </c>
       <c r="F343" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B344" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="C344" t="s">
-        <v>1354</v>
+        <v>790</v>
       </c>
       <c r="D344">
-        <v>167.73</v>
+        <v>481.16</v>
       </c>
       <c r="E344" s="1">
-        <v>2.6100000000000002E-2</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="F344" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>1356</v>
       </c>
@@ -13049,99 +13040,99 @@
         <v>1357</v>
       </c>
       <c r="C345" t="s">
-        <v>790</v>
+        <v>1358</v>
       </c>
       <c r="D345">
-        <v>481.16</v>
+        <v>14</v>
       </c>
       <c r="E345" s="1">
+        <v>-3.5999999999999999E-3</v>
+      </c>
+      <c r="F345" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D346">
+        <v>346.36</v>
+      </c>
+      <c r="E346" s="1">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="F346" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D347">
+        <v>78.58</v>
+      </c>
+      <c r="E347" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="F345" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B346" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C346" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D346">
-        <v>14</v>
-      </c>
-      <c r="E346" s="1">
-        <v>-3.5999999999999999E-3</v>
-      </c>
-      <c r="F346" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B347" t="s">
-        <v>1364</v>
-      </c>
-      <c r="C347" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D347">
-        <v>346.36</v>
-      </c>
-      <c r="E347" s="1">
-        <v>5.7000000000000002E-3</v>
-      </c>
       <c r="F347" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B348" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="C348" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="D348">
-        <v>78.58</v>
+        <v>74.81</v>
       </c>
       <c r="E348" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>-9.9000000000000008E-3</v>
       </c>
       <c r="F348" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B349" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C349" t="s">
-        <v>1373</v>
+        <v>516</v>
       </c>
       <c r="D349">
-        <v>74.81</v>
+        <v>74.39</v>
       </c>
       <c r="E349" s="1">
-        <v>-9.9000000000000008E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F349" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>1375</v>
       </c>
@@ -13149,179 +13140,179 @@
         <v>1376</v>
       </c>
       <c r="C350" t="s">
-        <v>516</v>
+        <v>1377</v>
       </c>
       <c r="D350">
-        <v>74.39</v>
+        <v>146.19</v>
       </c>
       <c r="E350" s="1">
-        <v>2.2000000000000001E-3</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="F350" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B351" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="C351" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D351">
-        <v>146.19</v>
+        <v>185</v>
       </c>
       <c r="E351" s="1">
-        <v>4.7000000000000002E-3</v>
+        <v>-2.7000000000000001E-3</v>
       </c>
       <c r="F351" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B352" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="C352" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D352">
-        <v>185</v>
+        <v>83.32</v>
       </c>
       <c r="E352" s="1">
-        <v>-2.7000000000000001E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="F352" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B353" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C353" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="D353">
-        <v>83.32</v>
+        <v>325.99</v>
       </c>
       <c r="E353" s="1">
-        <v>4.1000000000000003E-3</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="F353" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B354" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="C354" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D354">
-        <v>325.99</v>
+        <v>35.130000000000003</v>
       </c>
       <c r="E354" s="1">
-        <v>6.7999999999999996E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="F354" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="B355" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="C355" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="D355">
-        <v>35.130000000000003</v>
+        <v>7.83</v>
       </c>
       <c r="E355" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="F355" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B356" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C356" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D356">
-        <v>7.83</v>
+        <v>47.4</v>
       </c>
       <c r="E356" s="1">
-        <v>3.2000000000000002E-3</v>
+        <v>-8.9999999999999998E-4</v>
       </c>
       <c r="F356" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B357" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="C357" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="D357">
-        <v>47.4</v>
+        <v>89.91</v>
       </c>
       <c r="E357" s="1">
-        <v>-8.9999999999999998E-4</v>
+        <v>-1.6000000000000001E-3</v>
       </c>
       <c r="F357" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B358" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="C358" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D358">
-        <v>89.91</v>
+        <v>29.47</v>
       </c>
       <c r="E358" s="1">
-        <v>-1.6000000000000001E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="F358" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>1410</v>
       </c>
@@ -13329,19 +13320,19 @@
         <v>1411</v>
       </c>
       <c r="C359" t="s">
-        <v>1412</v>
+        <v>1328</v>
       </c>
       <c r="D359">
-        <v>29.47</v>
+        <v>120.46</v>
       </c>
       <c r="E359" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F359" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>1413</v>
       </c>
@@ -13349,19 +13340,19 @@
         <v>1414</v>
       </c>
       <c r="C360" t="s">
-        <v>1331</v>
+        <v>1415</v>
       </c>
       <c r="D360">
-        <v>120.46</v>
+        <v>390.9</v>
       </c>
       <c r="E360" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="F360" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>1416</v>
       </c>
@@ -13372,176 +13363,176 @@
         <v>1418</v>
       </c>
       <c r="D361">
-        <v>390.9</v>
+        <v>62.71</v>
       </c>
       <c r="E361" s="1">
-        <v>6.1999999999999998E-3</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
       <c r="F361" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B362" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C362" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D362">
-        <v>62.71</v>
+        <v>95.09</v>
       </c>
       <c r="E362" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F362" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D363">
+        <v>392.82</v>
+      </c>
+      <c r="E363" s="1">
+        <v>2.8E-3</v>
+      </c>
+      <c r="F363" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D364">
+        <v>93</v>
+      </c>
+      <c r="E364" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F364" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D365">
+        <v>117.64</v>
+      </c>
+      <c r="E365" s="1">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="F365" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D366">
+        <v>164.36</v>
+      </c>
+      <c r="E366" s="1">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="F366" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D367">
+        <v>45.5</v>
+      </c>
+      <c r="E367" s="1">
+        <v>-2.5000000000000001E-3</v>
+      </c>
+      <c r="F367" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D368">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="E368" s="1">
+        <v>1.4E-3</v>
+      </c>
+      <c r="F368" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D369">
+        <v>225</v>
+      </c>
+      <c r="E369" s="1">
         <v>-5.0000000000000001E-4</v>
       </c>
-      <c r="F362" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>1423</v>
-      </c>
-      <c r="B363" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C363" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D363">
-        <v>95.09</v>
-      </c>
-      <c r="E363" s="1">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F363" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B364" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C364" t="s">
-        <v>1429</v>
-      </c>
-      <c r="D364">
-        <v>392.82</v>
-      </c>
-      <c r="E364" s="1">
-        <v>2.8E-3</v>
-      </c>
-      <c r="F364" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B365" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C365" t="s">
-        <v>1433</v>
-      </c>
-      <c r="D365">
-        <v>93</v>
-      </c>
-      <c r="E365" s="1">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="F365" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
-        <v>1435</v>
-      </c>
-      <c r="B366" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C366" t="s">
-        <v>1437</v>
-      </c>
-      <c r="D366">
-        <v>117.64</v>
-      </c>
-      <c r="E366" s="1">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="F366" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B367" t="s">
-        <v>1440</v>
-      </c>
-      <c r="C367" t="s">
-        <v>1441</v>
-      </c>
-      <c r="D367">
-        <v>164.36</v>
-      </c>
-      <c r="E367" s="1">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="F367" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B368" t="s">
-        <v>1444</v>
-      </c>
-      <c r="C368" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D368">
-        <v>45.5</v>
-      </c>
-      <c r="E368" s="1">
-        <v>-2.5000000000000001E-3</v>
-      </c>
-      <c r="F368" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>1447</v>
-      </c>
-      <c r="B369" t="s">
-        <v>1448</v>
-      </c>
-      <c r="C369" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D369">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="E369" s="1">
-        <v>1.4E-3</v>
-      </c>
       <c r="F369" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>1451</v>
       </c>
@@ -13552,36 +13543,36 @@
         <v>1453</v>
       </c>
       <c r="D370">
-        <v>225</v>
+        <v>19.66</v>
       </c>
       <c r="E370" s="1">
-        <v>-5.0000000000000001E-4</v>
+        <v>-4.1000000000000003E-3</v>
       </c>
       <c r="F370" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B371" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="C371" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D371">
-        <v>19.66</v>
+        <v>119.85</v>
       </c>
       <c r="E371" s="1">
-        <v>-4.1000000000000003E-3</v>
+        <v>-6.1999999999999998E-3</v>
       </c>
       <c r="F371" t="s">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>1458</v>
       </c>
@@ -13592,156 +13583,156 @@
         <v>1460</v>
       </c>
       <c r="D372">
-        <v>119.85</v>
+        <v>515.96</v>
       </c>
       <c r="E372" s="1">
-        <v>-6.1999999999999998E-3</v>
+        <v>-2.5000000000000001E-3</v>
       </c>
       <c r="F372" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B373" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="C373" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="D373">
-        <v>515.96</v>
+        <v>14.31</v>
       </c>
       <c r="E373" s="1">
-        <v>-2.5000000000000001E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="F373" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B374" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="C374" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="D374">
-        <v>14.31</v>
+        <v>111.94</v>
       </c>
       <c r="E374" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="F374" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B375" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="C375" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D375">
-        <v>111.94</v>
+        <v>75.75</v>
       </c>
       <c r="E375" s="1">
-        <v>1.1900000000000001E-2</v>
+        <v>-1.5E-3</v>
       </c>
       <c r="F375" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B376" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="C376" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="D376">
-        <v>75.75</v>
+        <v>147.91999999999999</v>
       </c>
       <c r="E376" s="1">
-        <v>-1.5E-3</v>
+        <v>-4.0000000000000002E-4</v>
       </c>
       <c r="F376" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B377" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="C377" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="D377">
-        <v>147.91999999999999</v>
+        <v>40</v>
       </c>
       <c r="E377" s="1">
-        <v>-4.0000000000000002E-4</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="F377" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B378" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="C378" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D378">
-        <v>40</v>
+        <v>141.30000000000001</v>
       </c>
       <c r="E378" s="1">
-        <v>2.0999999999999999E-3</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="F378" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B379" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="C379" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D379">
-        <v>141.30000000000001</v>
+        <v>85.6</v>
       </c>
       <c r="E379" s="1">
-        <v>6.1999999999999998E-3</v>
+        <v>-2.0000000000000001E-4</v>
       </c>
       <c r="F379" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>1489</v>
       </c>
@@ -13752,256 +13743,256 @@
         <v>1491</v>
       </c>
       <c r="D380">
-        <v>85.6</v>
+        <v>52.91</v>
       </c>
       <c r="E380" s="1">
-        <v>-2.0000000000000001E-4</v>
+        <v>-2.0999999999999999E-3</v>
       </c>
       <c r="F380" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B381" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="C381" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D381">
-        <v>52.91</v>
+        <v>168.4</v>
       </c>
       <c r="E381" s="1">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="F381" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D382">
+        <v>138.49</v>
+      </c>
+      <c r="E382" s="1">
+        <v>-1E-4</v>
+      </c>
+      <c r="F382" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D383">
+        <v>77.17</v>
+      </c>
+      <c r="E383" s="1">
+        <v>-1.8E-3</v>
+      </c>
+      <c r="F383" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D384">
+        <v>202.43</v>
+      </c>
+      <c r="E384" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F384" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D385">
+        <v>117.07</v>
+      </c>
+      <c r="E385" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="F385" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D386">
+        <v>169.01</v>
+      </c>
+      <c r="E386" s="1">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="F386" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D387">
+        <v>77.98</v>
+      </c>
+      <c r="E387" s="1">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="F387" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D388">
+        <v>221.61</v>
+      </c>
+      <c r="E388" s="1">
         <v>-2.0999999999999999E-3</v>
       </c>
-      <c r="F381" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B382" t="s">
-        <v>1497</v>
-      </c>
-      <c r="C382" t="s">
-        <v>1498</v>
-      </c>
-      <c r="D382">
-        <v>168.4</v>
-      </c>
-      <c r="E382" s="1">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="F382" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B383" t="s">
-        <v>1501</v>
-      </c>
-      <c r="C383" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D383">
-        <v>138.49</v>
-      </c>
-      <c r="E383" s="1">
-        <v>-1E-4</v>
-      </c>
-      <c r="F383" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B384" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C384" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D384">
-        <v>77.17</v>
-      </c>
-      <c r="E384" s="1">
-        <v>-1.8E-3</v>
-      </c>
-      <c r="F384" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B385" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C385" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D385">
-        <v>202.43</v>
-      </c>
-      <c r="E385" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F385" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>1512</v>
-      </c>
-      <c r="B386" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C386" t="s">
-        <v>1514</v>
-      </c>
-      <c r="D386">
-        <v>117.07</v>
-      </c>
-      <c r="E386" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="F386" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>1516</v>
-      </c>
-      <c r="B387" t="s">
-        <v>1517</v>
-      </c>
-      <c r="C387" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D387">
-        <v>169.01</v>
-      </c>
-      <c r="E387" s="1">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="F387" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>1520</v>
-      </c>
-      <c r="B388" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C388" t="s">
-        <v>1522</v>
-      </c>
-      <c r="D388">
-        <v>77.98</v>
-      </c>
-      <c r="E388" s="1">
-        <v>2.8500000000000001E-2</v>
-      </c>
       <c r="F388" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B389" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="C389" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D389">
-        <v>221.61</v>
+        <v>87.12</v>
       </c>
       <c r="E389" s="1">
-        <v>-2.0999999999999999E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="F389" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B390" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="C390" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D390">
-        <v>87.12</v>
+        <v>433.61</v>
       </c>
       <c r="E390" s="1">
-        <v>4.5999999999999999E-3</v>
+        <v>-6.9999999999999999E-4</v>
       </c>
       <c r="F390" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B391" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="C391" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D391">
-        <v>433.61</v>
+        <v>382.29</v>
       </c>
       <c r="E391" s="1">
-        <v>-6.9999999999999999E-4</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="F391" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B392" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C392" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D392">
-        <v>382.29</v>
+        <v>255.51</v>
       </c>
       <c r="E392" s="1">
-        <v>9.5999999999999992E-3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="F392" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>1540</v>
       </c>
@@ -14009,19 +14000,19 @@
         <v>1541</v>
       </c>
       <c r="C393" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D393">
+        <v>35.83</v>
+      </c>
+      <c r="E393" s="1">
+        <v>-3.3E-3</v>
+      </c>
+      <c r="F393" t="s">
         <v>1542</v>
       </c>
-      <c r="D393">
-        <v>255.51</v>
-      </c>
-      <c r="E393" s="1">
-        <v>3.8999999999999998E-3</v>
-      </c>
-      <c r="F393" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>1543</v>
       </c>
@@ -14029,239 +14020,239 @@
         <v>1544</v>
       </c>
       <c r="C394" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="D394">
-        <v>35.83</v>
+        <v>318.01</v>
       </c>
       <c r="E394" s="1">
-        <v>-3.3E-3</v>
+        <v>-6.1000000000000004E-3</v>
       </c>
       <c r="F394" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B395" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="C395" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D395">
-        <v>318.01</v>
+        <v>27.05</v>
       </c>
       <c r="E395" s="1">
-        <v>-6.1000000000000004E-3</v>
+        <v>-4.7999999999999996E-3</v>
       </c>
       <c r="F395" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B396" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="C396" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D396">
-        <v>27.05</v>
+        <v>178.86</v>
       </c>
       <c r="E396" s="1">
-        <v>-4.7999999999999996E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F396" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B397" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="C397" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="D397">
-        <v>178.86</v>
+        <v>73.349999999999994</v>
       </c>
       <c r="E397" s="1">
-        <v>1.8E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="F397" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B398" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="C398" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="D398">
-        <v>73.349999999999994</v>
+        <v>133.80000000000001</v>
       </c>
       <c r="E398" s="1">
-        <v>1.6000000000000001E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="F398" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B399" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="C399" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="D399">
-        <v>133.80000000000001</v>
+        <v>70.849999999999994</v>
       </c>
       <c r="E399" s="1">
-        <v>6.1000000000000004E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="F399" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="B400" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="C400" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="D400">
-        <v>70.849999999999994</v>
+        <v>272.35000000000002</v>
       </c>
       <c r="E400" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F400" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B401" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="C401" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="D401">
-        <v>272.35000000000002</v>
+        <v>101.88</v>
       </c>
       <c r="E401" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>-2.3999999999999998E-3</v>
       </c>
       <c r="F401" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B402" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="C402" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D402">
+        <v>33.56</v>
+      </c>
+      <c r="E402" s="1">
+        <v>1.21E-2</v>
+      </c>
+      <c r="F402" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B403" t="s">
         <v>1576</v>
-      </c>
-      <c r="D402">
-        <v>101.88</v>
-      </c>
-      <c r="E402" s="1">
-        <v>-2.3999999999999998E-3</v>
-      </c>
-      <c r="F402" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
-        <v>1578</v>
-      </c>
-      <c r="B403" t="s">
-        <v>1579</v>
       </c>
       <c r="C403" t="s">
         <v>1580</v>
       </c>
       <c r="D403">
-        <v>33.56</v>
+        <v>30.9</v>
       </c>
       <c r="E403" s="1">
-        <v>1.21E-2</v>
+        <v>1.01E-2</v>
       </c>
       <c r="F403" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
         <v>1581</v>
       </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
+      <c r="B404" t="s">
         <v>1582</v>
-      </c>
-      <c r="B404" t="s">
-        <v>1579</v>
       </c>
       <c r="C404" t="s">
         <v>1583</v>
       </c>
       <c r="D404">
-        <v>30.9</v>
+        <v>27.07</v>
       </c>
       <c r="E404" s="1">
-        <v>1.01E-2</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="F404" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B405" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="C405" t="s">
-        <v>1586</v>
+        <v>598</v>
       </c>
       <c r="D405">
-        <v>27.07</v>
+        <v>129.66</v>
       </c>
       <c r="E405" s="1">
-        <v>3.2000000000000002E-3</v>
+        <v>-6.1000000000000004E-3</v>
       </c>
       <c r="F405" t="s">
         <v>1587</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>1588</v>
       </c>
@@ -14269,59 +14260,59 @@
         <v>1589</v>
       </c>
       <c r="C406" t="s">
-        <v>598</v>
+        <v>1590</v>
       </c>
       <c r="D406">
-        <v>129.66</v>
+        <v>136.35</v>
       </c>
       <c r="E406" s="1">
-        <v>-6.1000000000000004E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F406" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B407" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="C407" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D407">
-        <v>136.35</v>
+        <v>105.31</v>
       </c>
       <c r="E407" s="1">
-        <v>1.5E-3</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
       <c r="F407" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B408" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C408" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="D408">
-        <v>105.31</v>
+        <v>109.74</v>
       </c>
       <c r="E408" s="1">
-        <v>-5.0000000000000001E-4</v>
+        <v>-2.3300000000000001E-2</v>
       </c>
       <c r="F408" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>1599</v>
       </c>
@@ -14332,16 +14323,16 @@
         <v>1601</v>
       </c>
       <c r="D409">
-        <v>109.74</v>
+        <v>92.58</v>
       </c>
       <c r="E409" s="1">
-        <v>-2.3300000000000001E-2</v>
+        <v>-7.1000000000000004E-3</v>
       </c>
       <c r="F409" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>1602</v>
       </c>
@@ -14352,36 +14343,36 @@
         <v>1604</v>
       </c>
       <c r="D410">
-        <v>92.58</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="E410" s="1">
-        <v>-7.1000000000000004E-3</v>
+        <v>-2.3E-3</v>
       </c>
       <c r="F410" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B411" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="C411" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="D411">
-        <v>17.190000000000001</v>
+        <v>10.17</v>
       </c>
       <c r="E411" s="1">
-        <v>-2.3E-3</v>
+        <v>-4.8999999999999998E-3</v>
       </c>
       <c r="F411" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>1609</v>
       </c>
@@ -14392,56 +14383,56 @@
         <v>1611</v>
       </c>
       <c r="D412">
-        <v>10.17</v>
+        <v>30.71</v>
       </c>
       <c r="E412" s="1">
-        <v>-4.8999999999999998E-3</v>
+        <v>-4.1000000000000003E-3</v>
       </c>
       <c r="F412" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B413" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="C413" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="D413">
-        <v>30.71</v>
+        <v>276.58</v>
       </c>
       <c r="E413" s="1">
-        <v>-4.1000000000000003E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="F413" t="s">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B414" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="C414" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="D414">
-        <v>276.58</v>
+        <v>117.36</v>
       </c>
       <c r="E414" s="1">
-        <v>2.3999999999999998E-3</v>
+        <v>-1.5E-3</v>
       </c>
       <c r="F414" t="s">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>1620</v>
       </c>
@@ -14452,16 +14443,16 @@
         <v>1622</v>
       </c>
       <c r="D415">
-        <v>117.36</v>
+        <v>14.95</v>
       </c>
       <c r="E415" s="1">
-        <v>-1.5E-3</v>
+        <v>-4.7000000000000002E-3</v>
       </c>
       <c r="F415" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>1623</v>
       </c>
@@ -14472,36 +14463,36 @@
         <v>1625</v>
       </c>
       <c r="D416">
-        <v>14.95</v>
+        <v>110.34</v>
       </c>
       <c r="E416" s="1">
-        <v>-4.7000000000000002E-3</v>
+        <v>-1.0800000000000001E-2</v>
       </c>
       <c r="F416" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B417" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="C417" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="D417">
-        <v>110.34</v>
+        <v>366.19</v>
       </c>
       <c r="E417" s="1">
-        <v>-1.0800000000000001E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="F417" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>1630</v>
       </c>
@@ -14512,16 +14503,16 @@
         <v>1632</v>
       </c>
       <c r="D418">
-        <v>366.19</v>
+        <v>56.58</v>
       </c>
       <c r="E418" s="1">
-        <v>1E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="F418" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>1633</v>
       </c>
@@ -14532,36 +14523,36 @@
         <v>1635</v>
       </c>
       <c r="D419">
-        <v>56.58</v>
+        <v>83.24</v>
       </c>
       <c r="E419" s="1">
-        <v>5.9999999999999995E-4</v>
+        <v>-1.4E-3</v>
       </c>
       <c r="F419" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B420" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="C420" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="D420">
-        <v>83.24</v>
+        <v>11.56</v>
       </c>
       <c r="E420" s="1">
-        <v>-1.4E-3</v>
+        <v>-2.1600000000000001E-2</v>
       </c>
       <c r="F420" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>1640</v>
       </c>
@@ -14569,19 +14560,19 @@
         <v>1641</v>
       </c>
       <c r="C421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D421">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="E421" s="1">
+        <v>-1E-3</v>
+      </c>
+      <c r="F421" t="s">
         <v>1642</v>
       </c>
-      <c r="D421">
-        <v>11.56</v>
-      </c>
-      <c r="E421" s="1">
-        <v>-2.1600000000000001E-2</v>
-      </c>
-      <c r="F421" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>1643</v>
       </c>
@@ -14589,19 +14580,19 @@
         <v>1644</v>
       </c>
       <c r="C422" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="D422">
-        <v>19.350000000000001</v>
+        <v>24.74</v>
       </c>
       <c r="E422" s="1">
-        <v>-1E-3</v>
+        <v>-7.6E-3</v>
       </c>
       <c r="F422" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>1646</v>
       </c>
@@ -14609,159 +14600,159 @@
         <v>1647</v>
       </c>
       <c r="C423" t="s">
-        <v>1642</v>
+        <v>1648</v>
       </c>
       <c r="D423">
-        <v>24.74</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="E423" s="1">
-        <v>-7.6E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="F423" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>1649</v>
       </c>
       <c r="B424" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C424" t="s">
         <v>1650</v>
       </c>
-      <c r="C424" t="s">
+      <c r="D424">
+        <v>23.94</v>
+      </c>
+      <c r="E424" s="1">
+        <v>-8.5000000000000006E-3</v>
+      </c>
+      <c r="F424" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
         <v>1651</v>
       </c>
-      <c r="D424">
-        <v>39.590000000000003</v>
-      </c>
-      <c r="E424" s="1">
-        <v>7.9000000000000008E-3</v>
-      </c>
-      <c r="F424" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
+      <c r="B425" t="s">
         <v>1652</v>
-      </c>
-      <c r="B425" t="s">
-        <v>1647</v>
       </c>
       <c r="C425" t="s">
         <v>1653</v>
       </c>
       <c r="D425">
-        <v>23.94</v>
+        <v>74.11</v>
       </c>
       <c r="E425" s="1">
-        <v>-8.5000000000000006E-3</v>
+        <v>1.17E-2</v>
       </c>
       <c r="F425" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B426" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="C426" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="D426">
-        <v>74.11</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="E426" s="1">
-        <v>1.17E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="F426" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B427" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="C427" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="D427">
-        <v>19.170000000000002</v>
+        <v>45.05</v>
       </c>
       <c r="E427" s="1">
-        <v>1E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="F427" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B428" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="C428" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="D428">
-        <v>45.05</v>
+        <v>51.93</v>
       </c>
       <c r="E428" s="1">
-        <v>8.9999999999999998E-4</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F428" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B429" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="C429" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="D429">
-        <v>51.93</v>
+        <v>86.18</v>
       </c>
       <c r="E429" s="1">
-        <v>2.2000000000000001E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="F429" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B430" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="C430" t="s">
-        <v>1672</v>
+        <v>710</v>
       </c>
       <c r="D430">
-        <v>86.18</v>
+        <v>51.34</v>
       </c>
       <c r="E430" s="1">
-        <v>3.5000000000000001E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="F430" t="s">
         <v>1673</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>1674</v>
       </c>
@@ -14769,19 +14760,19 @@
         <v>1675</v>
       </c>
       <c r="C431" t="s">
-        <v>710</v>
+        <v>1676</v>
       </c>
       <c r="D431">
-        <v>51.34</v>
+        <v>20.18</v>
       </c>
       <c r="E431" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F431" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>1677</v>
       </c>
@@ -14789,79 +14780,79 @@
         <v>1678</v>
       </c>
       <c r="C432" t="s">
+        <v>468</v>
+      </c>
+      <c r="D432">
+        <v>18.22</v>
+      </c>
+      <c r="E432" s="1">
+        <v>-8.0000000000000004E-4</v>
+      </c>
+      <c r="F432" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
         <v>1679</v>
       </c>
-      <c r="D432">
-        <v>20.18</v>
-      </c>
-      <c r="E432" s="1">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F432" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
+      <c r="B433" t="s">
         <v>1680</v>
       </c>
-      <c r="B433" t="s">
+      <c r="C433" t="s">
         <v>1681</v>
       </c>
-      <c r="C433" t="s">
-        <v>468</v>
-      </c>
       <c r="D433">
-        <v>18.22</v>
+        <v>19</v>
       </c>
       <c r="E433" s="1">
-        <v>-8.0000000000000004E-4</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="F433" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B434" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="C434" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="D434">
-        <v>19</v>
+        <v>28.51</v>
       </c>
       <c r="E434" s="1">
-        <v>4.1999999999999997E-3</v>
+        <v>-7.3000000000000001E-3</v>
       </c>
       <c r="F434" t="s">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B435" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="C435" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="D435">
-        <v>28.51</v>
+        <v>102.9</v>
       </c>
       <c r="E435" s="1">
-        <v>-7.3000000000000001E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="F435" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>1690</v>
       </c>
@@ -14869,19 +14860,19 @@
         <v>1691</v>
       </c>
       <c r="C436" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D436">
+        <v>38.590000000000003</v>
+      </c>
+      <c r="E436" s="1">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="F436" t="s">
         <v>1692</v>
       </c>
-      <c r="D436">
-        <v>102.9</v>
-      </c>
-      <c r="E436" s="1">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="F436" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>1693</v>
       </c>
@@ -14889,219 +14880,219 @@
         <v>1694</v>
       </c>
       <c r="C437" t="s">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="D437">
-        <v>38.590000000000003</v>
+        <v>40.33</v>
       </c>
       <c r="E437" s="1">
-        <v>8.3999999999999995E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="F437" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B438" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="C438" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="D438">
-        <v>40.33</v>
+        <v>85.81</v>
       </c>
       <c r="E438" s="1">
-        <v>7.1999999999999998E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="F438" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B439" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="C439" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="D439">
-        <v>85.81</v>
+        <v>54.69</v>
       </c>
       <c r="E439" s="1">
-        <v>2.7000000000000001E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F439" t="s">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B440" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="C440" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="D440">
-        <v>54.69</v>
+        <v>177.85</v>
       </c>
       <c r="E440" s="1">
-        <v>2.2000000000000001E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="F440" t="s">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B441" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="C441" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="D441">
-        <v>177.85</v>
+        <v>58.44</v>
       </c>
       <c r="E441" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F441" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B442" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="C442" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="D442">
-        <v>58.44</v>
+        <v>23.6</v>
       </c>
       <c r="E442" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="F442" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B443" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="C443" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="D443">
-        <v>23.6</v>
+        <v>236.15</v>
       </c>
       <c r="E443" s="1">
-        <v>5.1000000000000004E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="F443" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B444" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="C444" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="D444">
-        <v>236.15</v>
+        <v>76.92</v>
       </c>
       <c r="E444" s="1">
+        <v>-1.8E-3</v>
+      </c>
+      <c r="F444" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D445">
+        <v>166.2</v>
+      </c>
+      <c r="E445" s="1">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F444" t="s">
-        <v>1723</v>
-      </c>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
-        <v>1724</v>
-      </c>
-      <c r="B445" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C445" t="s">
-        <v>1726</v>
-      </c>
-      <c r="D445">
-        <v>76.92</v>
-      </c>
-      <c r="E445" s="1">
-        <v>-1.8E-3</v>
-      </c>
       <c r="F445" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
         <v>1727</v>
       </c>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A446" t="s">
+      <c r="B446" t="s">
         <v>1728</v>
       </c>
-      <c r="B446" t="s">
+      <c r="C446" t="s">
         <v>1729</v>
       </c>
-      <c r="C446" t="s">
-        <v>1615</v>
-      </c>
       <c r="D446">
-        <v>166.2</v>
+        <v>53.65</v>
       </c>
       <c r="E446" s="1">
-        <v>3.7000000000000002E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="F446" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B447" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="C447" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="D447">
-        <v>53.65</v>
+        <v>112.34</v>
       </c>
       <c r="E447" s="1">
-        <v>2.5999999999999999E-3</v>
+        <v>-5.7999999999999996E-3</v>
       </c>
       <c r="F447" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>1734</v>
       </c>
@@ -15109,19 +15100,19 @@
         <v>1735</v>
       </c>
       <c r="C448" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D448">
+        <v>82.79</v>
+      </c>
+      <c r="E448" s="1">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="F448" t="s">
         <v>1736</v>
       </c>
-      <c r="D448">
-        <v>112.34</v>
-      </c>
-      <c r="E448" s="1">
-        <v>-5.7999999999999996E-3</v>
-      </c>
-      <c r="F448" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>1737</v>
       </c>
@@ -15129,39 +15120,39 @@
         <v>1738</v>
       </c>
       <c r="C449" t="s">
-        <v>1715</v>
+        <v>1739</v>
       </c>
       <c r="D449">
-        <v>82.79</v>
+        <v>135.96</v>
       </c>
       <c r="E449" s="1">
-        <v>-4.4000000000000003E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="F449" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B450" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="C450" t="s">
-        <v>1742</v>
+        <v>730</v>
       </c>
       <c r="D450">
-        <v>135.96</v>
+        <v>100.86</v>
       </c>
       <c r="E450" s="1">
-        <v>8.0000000000000004E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F450" t="s">
         <v>1743</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>1744</v>
       </c>
@@ -15169,59 +15160,59 @@
         <v>1745</v>
       </c>
       <c r="C451" t="s">
-        <v>730</v>
+        <v>1746</v>
       </c>
       <c r="D451">
-        <v>100.86</v>
+        <v>44.01</v>
       </c>
       <c r="E451" s="1">
-        <v>1E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F451" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B452" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="C452" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="D452">
-        <v>44.01</v>
+        <v>31.06</v>
       </c>
       <c r="E452" s="1">
-        <v>1.4E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="F452" t="s">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B453" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="C453" t="s">
-        <v>1753</v>
+        <v>1208</v>
       </c>
       <c r="D453">
-        <v>31.06</v>
+        <v>30.57</v>
       </c>
       <c r="E453" s="1">
-        <v>2.8999999999999998E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F453" t="s">
         <v>1754</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>1755</v>
       </c>
@@ -15229,19 +15220,19 @@
         <v>1756</v>
       </c>
       <c r="C454" t="s">
-        <v>1208</v>
+        <v>1757</v>
       </c>
       <c r="D454">
-        <v>30.57</v>
+        <v>34.53</v>
       </c>
       <c r="E454" s="1">
-        <v>2E-3</v>
+        <v>-1.6999999999999999E-3</v>
       </c>
       <c r="F454" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>1758</v>
       </c>
@@ -15252,176 +15243,176 @@
         <v>1760</v>
       </c>
       <c r="D455">
-        <v>34.53</v>
+        <v>104.75</v>
       </c>
       <c r="E455" s="1">
-        <v>-1.6999999999999999E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="F455" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B456" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="C456" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="D456">
-        <v>104.75</v>
+        <v>70.8</v>
       </c>
       <c r="E456" s="1">
-        <v>5.4999999999999997E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="F456" t="s">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B457" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="C457" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="D457">
-        <v>70.8</v>
+        <v>190.05</v>
       </c>
       <c r="E457" s="1">
-        <v>6.4999999999999997E-3</v>
+        <v>-0.2374</v>
       </c>
       <c r="F457" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B458" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="C458" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="D458">
-        <v>190.05</v>
+        <v>58.94</v>
       </c>
       <c r="E458" s="1">
-        <v>-0.2374</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="F458" t="s">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B459" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="C459" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="D459">
-        <v>58.94</v>
+        <v>124.48</v>
       </c>
       <c r="E459" s="1">
+        <v>2.8E-3</v>
+      </c>
+      <c r="F459" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D460">
+        <v>96.19</v>
+      </c>
+      <c r="E460" s="1">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="F459" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A460" t="s">
-        <v>1777</v>
-      </c>
-      <c r="B460" t="s">
-        <v>1778</v>
-      </c>
-      <c r="C460" t="s">
-        <v>1779</v>
-      </c>
-      <c r="D460">
-        <v>124.48</v>
-      </c>
-      <c r="E460" s="1">
-        <v>2.8E-3</v>
-      </c>
       <c r="F460" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="B461" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="C461" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="D461">
-        <v>96.19</v>
+        <v>47.87</v>
       </c>
       <c r="E461" s="1">
-        <v>4.5999999999999999E-3</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="F461" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B462" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="C462" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="D462">
-        <v>47.87</v>
+        <v>165.42</v>
       </c>
       <c r="E462" s="1">
-        <v>5.1999999999999998E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F462" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="B463" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="C463" t="s">
-        <v>1791</v>
+        <v>476</v>
       </c>
       <c r="D463">
-        <v>165.42</v>
+        <v>170.59</v>
       </c>
       <c r="E463" s="1">
-        <v>1.5E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="F463" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>1793</v>
       </c>
@@ -15429,99 +15420,99 @@
         <v>1794</v>
       </c>
       <c r="C464" t="s">
-        <v>476</v>
+        <v>1795</v>
       </c>
       <c r="D464">
-        <v>170.59</v>
+        <v>56</v>
       </c>
       <c r="E464" s="1">
-        <v>6.6E-3</v>
+        <v>-3.5999999999999999E-3</v>
       </c>
       <c r="F464" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="B465" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="C465" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="D465">
-        <v>56</v>
+        <v>171.89</v>
       </c>
       <c r="E465" s="1">
-        <v>-3.5999999999999999E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="F465" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="B466" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="C466" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="D466">
-        <v>171.89</v>
+        <v>172.11</v>
       </c>
       <c r="E466" s="1">
-        <v>8.0000000000000004E-4</v>
+        <v>-1E-3</v>
       </c>
       <c r="F466" t="s">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="B467" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="C467" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="D467">
-        <v>172.11</v>
+        <v>248.4</v>
       </c>
       <c r="E467" s="1">
-        <v>-1E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F467" t="s">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B468" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="C468" t="s">
-        <v>1810</v>
+        <v>1170</v>
       </c>
       <c r="D468">
-        <v>248.4</v>
+        <v>29.82</v>
       </c>
       <c r="E468" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="F468" t="s">
         <v>1811</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>1812</v>
       </c>
@@ -15529,79 +15520,79 @@
         <v>1813</v>
       </c>
       <c r="C469" t="s">
-        <v>1170</v>
+        <v>1814</v>
       </c>
       <c r="D469">
-        <v>29.82</v>
+        <v>81.33</v>
       </c>
       <c r="E469" s="1">
-        <v>8.5000000000000006E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="F469" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="B470" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="C470" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="D470">
-        <v>81.33</v>
+        <v>60.51</v>
       </c>
       <c r="E470" s="1">
-        <v>4.4000000000000003E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="F470" t="s">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="B471" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="C471" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="D471">
-        <v>60.51</v>
+        <v>200.86</v>
       </c>
       <c r="E471" s="1">
-        <v>6.4000000000000003E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F471" t="s">
-        <v>1822</v>
-      </c>
-    </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="B472" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="C472" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="D472">
-        <v>200.86</v>
+        <v>73.28</v>
       </c>
       <c r="E472" s="1">
-        <v>2E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="F472" t="s">
-        <v>1826</v>
-      </c>
-    </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>1827</v>
       </c>
@@ -15609,19 +15600,19 @@
         <v>1828</v>
       </c>
       <c r="C473" t="s">
+        <v>520</v>
+      </c>
+      <c r="D473">
+        <v>14.35</v>
+      </c>
+      <c r="E473" s="1">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+      <c r="F473" t="s">
         <v>1829</v>
       </c>
-      <c r="D473">
-        <v>73.28</v>
-      </c>
-      <c r="E473" s="1">
-        <v>7.1000000000000004E-3</v>
-      </c>
-      <c r="F473" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>1830</v>
       </c>
@@ -15629,19 +15620,19 @@
         <v>1831</v>
       </c>
       <c r="C474" t="s">
-        <v>520</v>
+        <v>1832</v>
       </c>
       <c r="D474">
-        <v>14.35</v>
+        <v>58.74</v>
       </c>
       <c r="E474" s="1">
-        <v>-4.8999999999999998E-3</v>
+        <v>-3.7000000000000002E-3</v>
       </c>
       <c r="F474" t="s">
-        <v>1832</v>
-      </c>
-    </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>1833</v>
       </c>
@@ -15652,96 +15643,96 @@
         <v>1835</v>
       </c>
       <c r="D475">
-        <v>58.74</v>
+        <v>177.54</v>
       </c>
       <c r="E475" s="1">
-        <v>-3.7000000000000002E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="F475" t="s">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B476" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="C476" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="D476">
-        <v>177.54</v>
+        <v>95.54</v>
       </c>
       <c r="E476" s="1">
-        <v>5.7000000000000002E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F476" t="s">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B477" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="C477" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="D477">
-        <v>95.54</v>
-      </c>
-      <c r="E477" s="1">
-        <v>-5.0000000000000001E-3</v>
+        <v>12.82</v>
+      </c>
+      <c r="E477" t="s">
+        <v>287</v>
       </c>
       <c r="F477" t="s">
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B478" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="C478" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="D478">
-        <v>12.82</v>
-      </c>
-      <c r="E478" t="s">
-        <v>287</v>
+        <v>38.659999999999997</v>
+      </c>
+      <c r="E478" s="1">
+        <v>-8.2000000000000007E-3</v>
       </c>
       <c r="F478" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B479" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="C479" t="s">
-        <v>1850</v>
+        <v>472</v>
       </c>
       <c r="D479">
-        <v>38.659999999999997</v>
+        <v>76.77</v>
       </c>
       <c r="E479" s="1">
-        <v>-8.2000000000000007E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F479" t="s">
         <v>1851</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>1852</v>
       </c>
@@ -15749,39 +15740,39 @@
         <v>1853</v>
       </c>
       <c r="C480" t="s">
-        <v>472</v>
+        <v>1854</v>
       </c>
       <c r="D480">
-        <v>76.77</v>
+        <v>90.44</v>
       </c>
       <c r="E480" s="1">
-        <v>1.8E-3</v>
+        <v>1.06E-2</v>
       </c>
       <c r="F480" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B481" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="C481" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="D481">
-        <v>90.44</v>
+        <v>37.6</v>
       </c>
       <c r="E481" s="1">
-        <v>1.06E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="F481" t="s">
-        <v>1858</v>
-      </c>
-    </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>1859</v>
       </c>
@@ -15792,36 +15783,36 @@
         <v>1861</v>
       </c>
       <c r="D482">
-        <v>37.6</v>
+        <v>61.5</v>
       </c>
       <c r="E482" s="1">
-        <v>2.3999999999999998E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="F482" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B483" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="C483" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="D483">
-        <v>61.5</v>
+        <v>102.25</v>
       </c>
       <c r="E483" s="1">
-        <v>2.8999999999999998E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F483" t="s">
-        <v>1865</v>
-      </c>
-    </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>1866</v>
       </c>
@@ -15829,19 +15820,19 @@
         <v>1867</v>
       </c>
       <c r="C484" t="s">
+        <v>496</v>
+      </c>
+      <c r="D484">
+        <v>138.05000000000001</v>
+      </c>
+      <c r="E484" s="1">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="F484" t="s">
         <v>1868</v>
       </c>
-      <c r="D484">
-        <v>102.25</v>
-      </c>
-      <c r="E484" s="1">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="F484" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>1869</v>
       </c>
@@ -15849,19 +15840,19 @@
         <v>1870</v>
       </c>
       <c r="C485" t="s">
-        <v>496</v>
+        <v>1871</v>
       </c>
       <c r="D485">
-        <v>138.05000000000001</v>
+        <v>66.010000000000005</v>
       </c>
       <c r="E485" s="1">
-        <v>6.4999999999999997E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F485" t="s">
-        <v>1871</v>
-      </c>
-    </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>1872</v>
       </c>
@@ -15872,36 +15863,36 @@
         <v>1874</v>
       </c>
       <c r="D486">
-        <v>66.010000000000005</v>
+        <v>30.13</v>
       </c>
       <c r="E486" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="F486" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="B487" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="C487" t="s">
-        <v>1877</v>
+        <v>1554</v>
       </c>
       <c r="D487">
-        <v>30.13</v>
+        <v>36.11</v>
       </c>
       <c r="E487" s="1">
-        <v>1.0200000000000001E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="F487" t="s">
         <v>1878</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>1879</v>
       </c>
@@ -15909,39 +15900,39 @@
         <v>1880</v>
       </c>
       <c r="C488" t="s">
-        <v>1557</v>
+        <v>1881</v>
       </c>
       <c r="D488">
-        <v>36.11</v>
+        <v>268.83</v>
       </c>
       <c r="E488" s="1">
-        <v>-3.0000000000000001E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="F488" t="s">
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B489" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="C489" t="s">
-        <v>1884</v>
+        <v>971</v>
       </c>
       <c r="D489">
-        <v>268.83</v>
+        <v>204.28</v>
       </c>
       <c r="E489" s="1">
-        <v>2.0999999999999999E-3</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="F489" t="s">
         <v>1885</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>1886</v>
       </c>
@@ -15949,39 +15940,39 @@
         <v>1887</v>
       </c>
       <c r="C490" t="s">
-        <v>971</v>
+        <v>1888</v>
       </c>
       <c r="D490">
-        <v>204.28</v>
+        <v>118.08</v>
       </c>
       <c r="E490" s="1">
-        <v>1.0200000000000001E-2</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="F490" t="s">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B491" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="C491" t="s">
-        <v>1891</v>
+        <v>610</v>
       </c>
       <c r="D491">
-        <v>118.08</v>
+        <v>70.010000000000005</v>
       </c>
       <c r="E491" s="1">
-        <v>-1.1999999999999999E-3</v>
+        <v>-1.6000000000000001E-3</v>
       </c>
       <c r="F491" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>1893</v>
       </c>
@@ -15989,96 +15980,76 @@
         <v>1894</v>
       </c>
       <c r="C492" t="s">
-        <v>610</v>
+        <v>1895</v>
       </c>
       <c r="D492">
-        <v>70.010000000000005</v>
+        <v>62.55</v>
       </c>
       <c r="E492" s="1">
-        <v>-1.6000000000000001E-3</v>
+        <v>-2.9999999999999997E-4</v>
       </c>
       <c r="F492" t="s">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="B493" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="C493" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="D493">
-        <v>62.55</v>
+        <v>53.61</v>
       </c>
       <c r="E493" s="1">
-        <v>-2.9999999999999997E-4</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F493" t="s">
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="B494" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="C494" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="D494">
-        <v>53.61</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="E494" s="1">
-        <v>-5.0000000000000001E-3</v>
+        <v>-1.9E-3</v>
       </c>
       <c r="F494" t="s">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="B495" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="C495" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="D495">
-        <v>16.059999999999999</v>
+        <v>15.03</v>
       </c>
       <c r="E495" s="1">
-        <v>-1.9E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F495" t="s">
-        <v>1907</v>
-      </c>
-    </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A496" t="s">
         <v>1908</v>
-      </c>
-      <c r="B496" t="s">
-        <v>1909</v>
-      </c>
-      <c r="C496" t="s">
-        <v>1910</v>
-      </c>
-      <c r="D496">
-        <v>15.03</v>
-      </c>
-      <c r="E496" s="1">
-        <v>2.3E-3</v>
-      </c>
-      <c r="F496" t="s">
-        <v>1911</v>
       </c>
     </row>
   </sheetData>
